--- a/results/many_equal/quicksort.xlsx
+++ b/results/many_equal/quicksort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{158D309D-DCD3-447F-BE8A-1A48B2800CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48922519-68DB-449C-A705-00A875BE0682}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{158D309D-DCD3-447F-BE8A-1A48B2800CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{083C8DE1-C336-4E81-942A-B4DF501C0BC0}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="2235" windowWidth="33270" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quicksort" sheetId="1" r:id="rId1"/>
@@ -593,19 +593,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -631,19 +625,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -674,19 +662,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -785,19 +767,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -896,19 +872,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1018,10 +988,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1049,10 +1020,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1072,9 +1044,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1088,8 +1060,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1118,9 +1091,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1135,10 +1108,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1148,13 +1122,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Zeit in</a:t>
+                  <a:t>Zeit in ns</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> ns</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1171,10 +1140,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1204,8 +1174,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1245,8 +1216,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1270,28 +1242,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1334,19 +1295,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1372,19 +1327,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1415,19 +1364,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1526,19 +1469,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1648,10 +1585,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1679,10 +1617,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1702,9 +1641,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1718,8 +1657,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1748,9 +1688,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1765,10 +1705,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1778,13 +1719,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Zeit in</a:t>
+                  <a:t>Zeit in ns</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> ns</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1801,10 +1737,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1834,8 +1771,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1875,8 +1813,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1900,28 +1839,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2024,33 +1952,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2058,34 +1988,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2094,8 +2016,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2114,6 +2037,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2122,35 +2053,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2162,29 +2103,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2202,18 +2145,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2223,20 +2169,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2250,14 +2196,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2271,8 +2217,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2286,6 +2233,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2297,9 +2250,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2314,13 +2267,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2332,14 +2286,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2351,13 +2305,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2366,13 +2321,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2380,7 +2336,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2393,21 +2349,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2415,14 +2361,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2434,19 +2380,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2462,6 +2401,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2470,8 +2410,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2481,7 +2422,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2489,9 +2430,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2502,8 +2443,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2515,38 +2457,46 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2554,34 +2504,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2590,8 +2532,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2610,6 +2553,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2618,35 +2569,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2658,29 +2619,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2698,18 +2661,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2719,20 +2685,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2746,14 +2712,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2767,8 +2733,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2782,6 +2749,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2793,9 +2766,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2810,13 +2783,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2828,14 +2802,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2847,13 +2821,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2862,13 +2837,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2876,7 +2852,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2889,21 +2865,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2911,14 +2877,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2930,19 +2896,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2958,6 +2917,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2966,8 +2926,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2977,7 +2938,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2985,9 +2946,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2998,8 +2959,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3011,6 +2973,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>

--- a/results/many_equal/quicksort.xlsx
+++ b/results/many_equal/quicksort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{158D309D-DCD3-447F-BE8A-1A48B2800CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{083C8DE1-C336-4E81-942A-B4DF501C0BC0}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{158D309D-DCD3-447F-BE8A-1A48B2800CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D78DE1E-FBAF-4148-9E0C-00321360D65A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="1455" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quicksort" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>BEST_CASE</t>
   </si>
@@ -28,7 +28,10 @@
     <t>AVERAGE_CASE</t>
   </si>
   <si>
-    <t>WORST_CASE</t>
+    <t>WORST_CASE_SORTED</t>
+  </si>
+  <si>
+    <t>WORST_CASE_ALL_SAME</t>
   </si>
 </sst>
 </file>
@@ -607,708 +610,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Quicksort</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>quicksort!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BEST_CASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>quicksort!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>quicksort!$B$2:$J$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6133</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30766</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63966</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>124133</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>251433</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>526400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4025-460D-B563-0BC7AE36F8ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>quicksort!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AVERAGE_CASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>quicksort!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>quicksort!$B$3:$J$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>6340</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12870</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27250</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62470</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>136330</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>333810</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>702540</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2033710</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3954970</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4025-460D-B563-0BC7AE36F8ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>quicksort!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>WORST_CASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>quicksort!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>quicksort!$B$4:$J$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>14266</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53266</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>193133</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>773566</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3039666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12297133</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48128400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>195540166</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>772761266</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4025-460D-B563-0BC7AE36F8ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2038445791"/>
-        <c:axId val="2038452031"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2038445791"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Größe der Eingabe in log2(n)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2038452031"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2038452031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Zeit in ns</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2038445791"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
               <a:t>Quicksort ohne Worst-Case</a:t>
             </a:r>
           </a:p>
@@ -1871,6 +1172,818 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Quicksort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>quicksort!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BEST_CASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>quicksort!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>quicksort!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124133</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>251433</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>526400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B72C-4CD9-A4D3-D8E517FC044E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>quicksort!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVERAGE_CASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>quicksort!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>quicksort!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6340</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12870</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136330</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>333810</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>702540</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2033710</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3954970</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B72C-4CD9-A4D3-D8E517FC044E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>quicksort!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WORST_CASE_SORTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>quicksort!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>quicksort!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>773566</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3039666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12297133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48128400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>195540166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>772761266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B72C-4CD9-A4D3-D8E517FC044E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>quicksort!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WORST_CASE_ALL_SAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>quicksort!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>quicksort!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>382733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1506200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6005600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24012800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95685100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>383639533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B72C-4CD9-A4D3-D8E517FC044E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1029176879"/>
+        <c:axId val="1029174383"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1029176879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Größe der Eingabe in log2(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1029174383"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1029174383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Zeit in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> ns</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1029176879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2987,23 +3100,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901036BF-DF04-4C55-821D-DDE4A9A45638}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8CFCCA-B994-CD24-1A1E-1A571CCE8E69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3023,23 +3136,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>185736</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>252411</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
+        <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8CFCCA-B994-CD24-1A1E-1A571CCE8E69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAA31FD-F661-5910-FCAC-7150F5403012}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3361,13 +3474,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+      <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1">
@@ -3492,6 +3613,38 @@
       </c>
       <c r="J4">
         <v>772761266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>7900</v>
+      </c>
+      <c r="C5">
+        <v>27366</v>
+      </c>
+      <c r="D5">
+        <v>99300</v>
+      </c>
+      <c r="E5">
+        <v>382733</v>
+      </c>
+      <c r="F5">
+        <v>1506200</v>
+      </c>
+      <c r="G5">
+        <v>6005600</v>
+      </c>
+      <c r="H5">
+        <v>24012800</v>
+      </c>
+      <c r="I5">
+        <v>95685100</v>
+      </c>
+      <c r="J5">
+        <v>383639533</v>
       </c>
     </row>
   </sheetData>

--- a/results/many_equal/quicksort.xlsx
+++ b/results/many_equal/quicksort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{158D309D-DCD3-447F-BE8A-1A48B2800CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D78DE1E-FBAF-4148-9E0C-00321360D65A}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{DAC240B8-12AB-474B-A042-E245F4EB76FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B8BC5C3-5B5F-4D84-BCAE-D3E1E64070A8}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1455" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19800" yWindow="1935" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quicksort" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
+    <t>AVERAGE_CASE</t>
+  </si>
+  <si>
     <t>BEST_CASE</t>
   </si>
   <si>
-    <t>AVERAGE_CASE</t>
+    <t>WORST_CASE_ALL_SAME</t>
   </si>
   <si>
     <t>WORST_CASE_SORTED</t>
-  </si>
-  <si>
-    <t>WORST_CASE_ALL_SAME</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Quicksort ohne Worst-Case</a:t>
+              <a:t>Quicksort</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -659,7 +659,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BEST_CASE</c:v>
+                  <c:v>AVERAGE_CASE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -719,31 +719,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2500</c:v>
+                  <c:v>6900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3400</c:v>
+                  <c:v>13720</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6133</c:v>
+                  <c:v>28380</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12600</c:v>
+                  <c:v>69960</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30766</c:v>
+                  <c:v>154600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63966</c:v>
+                  <c:v>432150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124133</c:v>
+                  <c:v>1347540</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>251433</c:v>
+                  <c:v>4532630</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>526400</c:v>
+                  <c:v>16446350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,7 +751,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5622-4E2E-A794-942E792437B6}"/>
+              <c16:uniqueId val="{00000000-65B1-4D81-B218-551F4AD894BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -764,7 +764,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AVERAGE_CASE</c:v>
+                  <c:v>BEST_CASE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -824,31 +824,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6340</c:v>
+                  <c:v>1720</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12870</c:v>
+                  <c:v>3170</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27250</c:v>
+                  <c:v>6120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62470</c:v>
+                  <c:v>12950</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136330</c:v>
+                  <c:v>29800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>333810</c:v>
+                  <c:v>59470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>702540</c:v>
+                  <c:v>125160</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2033710</c:v>
+                  <c:v>272120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3954970</c:v>
+                  <c:v>566800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,7 +856,217 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5622-4E2E-A794-942E792437B6}"/>
+              <c16:uniqueId val="{00000001-65B1-4D81-B218-551F4AD894BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>quicksort!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WORST_CASE_ALL_SAME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>quicksort!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>quicksort!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7060</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97790</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>382030</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1520610</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6083490</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24107830</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96083910</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>385193780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-65B1-4D81-B218-551F4AD894BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>quicksort!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WORST_CASE_SORTED</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>quicksort!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>quicksort!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14660</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51990</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>767810</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3032800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12073520</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48234490</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>192396910</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>772075630</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-65B1-4D81-B218-551F4AD894BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -869,11 +1079,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2063089887"/>
-        <c:axId val="2063102783"/>
+        <c:axId val="1006077503"/>
+        <c:axId val="1006074175"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2063089887"/>
+        <c:axId val="1006077503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +1181,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2063102783"/>
+        <c:crossAx val="1006074175"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -979,7 +1189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2063102783"/>
+        <c:axId val="1006074175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,7 +1295,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2063089887"/>
+        <c:crossAx val="1006077503"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1207,7 +1417,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Quicksort</a:t>
+              <a:t>Quicksort ohne Worst-Case</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1256,7 +1466,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BEST_CASE</c:v>
+                  <c:v>AVERAGE_CASE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1316,31 +1526,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2500</c:v>
+                  <c:v>6900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3400</c:v>
+                  <c:v>13720</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6133</c:v>
+                  <c:v>28380</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12600</c:v>
+                  <c:v>69960</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30766</c:v>
+                  <c:v>154600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63966</c:v>
+                  <c:v>432150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124133</c:v>
+                  <c:v>1347540</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>251433</c:v>
+                  <c:v>4532630</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>526400</c:v>
+                  <c:v>16446350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,7 +1558,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B72C-4CD9-A4D3-D8E517FC044E}"/>
+              <c16:uniqueId val="{00000000-FA89-4E6F-8A11-D4F7F9426A1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1361,7 +1571,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AVERAGE_CASE</c:v>
+                  <c:v>BEST_CASE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1421,31 +1631,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6340</c:v>
+                  <c:v>1720</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12870</c:v>
+                  <c:v>3170</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27250</c:v>
+                  <c:v>6120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62470</c:v>
+                  <c:v>12950</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136330</c:v>
+                  <c:v>29800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>333810</c:v>
+                  <c:v>59470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>702540</c:v>
+                  <c:v>125160</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2033710</c:v>
+                  <c:v>272120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3954970</c:v>
+                  <c:v>566800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,217 +1663,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B72C-4CD9-A4D3-D8E517FC044E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>quicksort!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>WORST_CASE_SORTED</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>quicksort!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>quicksort!$B$4:$J$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>14266</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>53266</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>193133</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>773566</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3039666</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12297133</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>48128400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>195540166</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>772761266</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B72C-4CD9-A4D3-D8E517FC044E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>quicksort!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>WORST_CASE_ALL_SAME</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>quicksort!$B$1:$J$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>quicksort!$B$5:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>7900</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27366</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>382733</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1506200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6005600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24012800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>95685100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>383639533</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B72C-4CD9-A4D3-D8E517FC044E}"/>
+              <c16:uniqueId val="{00000001-FA89-4E6F-8A11-D4F7F9426A1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1676,11 +1676,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1029176879"/>
-        <c:axId val="1029174383"/>
+        <c:axId val="960807295"/>
+        <c:axId val="960798559"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1029176879"/>
+        <c:axId val="960807295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,7 +1778,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1029174383"/>
+        <c:crossAx val="960798559"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1786,7 +1786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1029174383"/>
+        <c:axId val="960798559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,11 +1827,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Zeit in</a:t>
+                  <a:t>Zeit</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> ns</a:t>
+                  <a:t> in ns</a:t>
                 </a:r>
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
@@ -1897,7 +1897,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1029176879"/>
+        <c:crossAx val="960807295"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3100,23 +3100,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>185736</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>195261</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
+        <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8CFCCA-B994-CD24-1A1E-1A571CCE8E69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98AD65A6-237B-B06A-4F39-D8C75A96E224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3136,23 +3136,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>252411</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAA31FD-F661-5910-FCAC-7150F5403012}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{191E1B34-B0E1-771C-605C-15B7DF6A08A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3171,10 +3171,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3477,7 +3473,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J5"/>
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3524,31 +3520,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2500</v>
+        <v>6900</v>
       </c>
       <c r="C2">
-        <v>3400</v>
+        <v>13720</v>
       </c>
       <c r="D2">
-        <v>6133</v>
+        <v>28380</v>
       </c>
       <c r="E2">
-        <v>12600</v>
+        <v>69960</v>
       </c>
       <c r="F2">
-        <v>30766</v>
+        <v>154600</v>
       </c>
       <c r="G2">
-        <v>63966</v>
+        <v>432150</v>
       </c>
       <c r="H2">
-        <v>124133</v>
+        <v>1347540</v>
       </c>
       <c r="I2">
-        <v>251433</v>
+        <v>4532630</v>
       </c>
       <c r="J2">
-        <v>526400</v>
+        <v>16446350</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3556,31 +3552,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6340</v>
+        <v>1720</v>
       </c>
       <c r="C3">
-        <v>12870</v>
+        <v>3170</v>
       </c>
       <c r="D3">
-        <v>27250</v>
+        <v>6120</v>
       </c>
       <c r="E3">
-        <v>62470</v>
+        <v>12950</v>
       </c>
       <c r="F3">
-        <v>136330</v>
+        <v>29800</v>
       </c>
       <c r="G3">
-        <v>333810</v>
+        <v>59470</v>
       </c>
       <c r="H3">
-        <v>702540</v>
+        <v>125160</v>
       </c>
       <c r="I3">
-        <v>2033710</v>
+        <v>272120</v>
       </c>
       <c r="J3">
-        <v>3954970</v>
+        <v>566800</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3588,31 +3584,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14266</v>
+        <v>7060</v>
       </c>
       <c r="C4">
-        <v>53266</v>
+        <v>25700</v>
       </c>
       <c r="D4">
-        <v>193133</v>
+        <v>97790</v>
       </c>
       <c r="E4">
-        <v>773566</v>
+        <v>382030</v>
       </c>
       <c r="F4">
-        <v>3039666</v>
+        <v>1520610</v>
       </c>
       <c r="G4">
-        <v>12297133</v>
+        <v>6083490</v>
       </c>
       <c r="H4">
-        <v>48128400</v>
+        <v>24107830</v>
       </c>
       <c r="I4">
-        <v>195540166</v>
+        <v>96083910</v>
       </c>
       <c r="J4">
-        <v>772761266</v>
+        <v>385193780</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3620,31 +3616,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7900</v>
+        <v>14660</v>
       </c>
       <c r="C5">
-        <v>27366</v>
+        <v>51990</v>
       </c>
       <c r="D5">
-        <v>99300</v>
+        <v>195320</v>
       </c>
       <c r="E5">
-        <v>382733</v>
+        <v>767810</v>
       </c>
       <c r="F5">
-        <v>1506200</v>
+        <v>3032800</v>
       </c>
       <c r="G5">
-        <v>6005600</v>
+        <v>12073520</v>
       </c>
       <c r="H5">
-        <v>24012800</v>
+        <v>48234490</v>
       </c>
       <c r="I5">
-        <v>95685100</v>
+        <v>192396910</v>
       </c>
       <c r="J5">
-        <v>383639533</v>
+        <v>772075630</v>
       </c>
     </row>
   </sheetData>
